--- a/resultados/resultados com wavelet.xlsx
+++ b/resultados/resultados com wavelet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>LRC - Wavelet (100 holdouts experimento)</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>sym4</t>
+  </si>
+  <si>
+    <t>EssexFaces - Waveletfaces lvl3</t>
+  </si>
+  <si>
+    <t>ORL - Waveletfaces lvl3</t>
+  </si>
+  <si>
+    <t>YaleB - Waveletfaces lvl3</t>
   </si>
 </sst>
 </file>
@@ -92,12 +101,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -408,9 +418,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -451,15 +468,410 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>0.85646923076922998</v>
+      </c>
+      <c r="C4">
+        <v>0.86406153846153799</v>
+      </c>
+      <c r="D4">
+        <v>0.86645384615384602</v>
+      </c>
+      <c r="E4">
+        <v>0.84323076923076901</v>
+      </c>
+      <c r="F4">
+        <v>0.851676923076922</v>
+      </c>
+      <c r="G4">
+        <v>0.86644615384615298</v>
+      </c>
+      <c r="H4">
+        <v>0.85093846153846098</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>1.1669596701664E-2</v>
+      </c>
+      <c r="C5">
+        <v>1.1822244512102001E-2</v>
+      </c>
+      <c r="D5">
+        <v>1.1759801413839E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.27639779124652E-2</v>
+      </c>
+      <c r="F5">
+        <v>9.1686686582940803E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.0681284764564199E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.0207708810715199E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.88716666666666599</v>
+      </c>
+      <c r="C9">
+        <v>0.88294444444444398</v>
+      </c>
+      <c r="D9">
+        <v>0.88558333333333294</v>
+      </c>
+      <c r="E9">
+        <v>0.87961111111111101</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.90175000000000005</v>
+      </c>
+      <c r="G9">
+        <v>0.88127777777777705</v>
+      </c>
+      <c r="H9">
+        <v>0.88916666666666599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1.11625792092676E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.1373877059520201E-2</v>
+      </c>
+      <c r="D10">
+        <v>1.1558761601732401E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.1856515994564E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.10856070673373E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.14263666303588E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1.10364555437884E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.9637</v>
+      </c>
+      <c r="D14">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="E14">
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="F14">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="H14">
+        <v>0.96775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1.6063966521633499E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.44564793749504E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.56021976474012E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.6898254951567201E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.6845334847442099E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.39229481378221E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.41488301261763E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.953519736842105</v>
+      </c>
+      <c r="C19">
+        <v>0.95171875000000095</v>
+      </c>
+      <c r="D19">
+        <v>0.95269736842105301</v>
+      </c>
+      <c r="E19">
+        <v>0.94440789473684195</v>
+      </c>
+      <c r="F19">
+        <v>0.95050986842105301</v>
+      </c>
+      <c r="G19">
+        <v>0.95184210526315804</v>
+      </c>
+      <c r="H19">
+        <v>0.95444078947368405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>5.4128354620184699E-3</v>
+      </c>
+      <c r="C20">
+        <v>5.3822264999305097E-3</v>
+      </c>
+      <c r="D20">
+        <v>5.6470221576230498E-3</v>
+      </c>
+      <c r="E20">
+        <v>7.0879244027249998E-3</v>
+      </c>
+      <c r="F20">
+        <v>6.3302421809923798E-3</v>
+      </c>
+      <c r="G20">
+        <v>6.0229256901032603E-3</v>
+      </c>
+      <c r="H20">
+        <v>5.9021882928009797E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.79291428571428602</v>
+      </c>
+      <c r="C24">
+        <v>0.80034285714285702</v>
+      </c>
+      <c r="D24">
+        <v>0.7984</v>
+      </c>
+      <c r="E24">
+        <v>0.76971428571428602</v>
+      </c>
+      <c r="F24">
+        <v>0.80302857142857098</v>
+      </c>
+      <c r="G24">
+        <v>0.794685714285714</v>
+      </c>
+      <c r="H24">
+        <v>0.78239999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1.72130729161586E-2</v>
+      </c>
+      <c r="C25">
+        <v>1.93319497606773E-2</v>
+      </c>
+      <c r="D25">
+        <v>1.9258732880694102E-2</v>
+      </c>
+      <c r="E25">
+        <v>2.19575145409187E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.8366530594103501E-2</v>
+      </c>
+      <c r="G25">
+        <v>2.026077389359E-2</v>
+      </c>
+      <c r="H25">
+        <v>1.6000416487707201E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resultados/resultados com wavelet.xlsx
+++ b/resultados/resultados com wavelet.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="LRC" sheetId="2" r:id="rId1"/>
+    <sheet name="LRC - Wavelet" sheetId="1" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
-  <si>
-    <t>LRC - Wavelet (100 holdouts experimento)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Taxa de acerto</t>
   </si>
@@ -58,6 +55,36 @@
   </si>
   <si>
     <t>YaleB - Waveletfaces lvl3</t>
+  </si>
+  <si>
+    <t>ARFaces</t>
+  </si>
+  <si>
+    <t>Taxa de Acerto</t>
+  </si>
+  <si>
+    <t>Desvio Padrao</t>
+  </si>
+  <si>
+    <t>YaleB</t>
+  </si>
+  <si>
+    <t>Gtech</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>GTech - Waveletfaces lvl3</t>
+  </si>
+  <si>
+    <t>EssexFaces</t>
+  </si>
+  <si>
+    <t>LRC - 100 holdout experimento (50% treino - 50% teste)</t>
+  </si>
+  <si>
+    <t>LRC - Wavelet - 100 holdouts experimento (50% treino - 50% teste)</t>
   </si>
 </sst>
 </file>
@@ -103,11 +130,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +429,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0.81005384615384601</v>
+      </c>
+      <c r="C3">
+        <v>0.929095394736842</v>
+      </c>
+      <c r="D3">
+        <v>0.77851428571428605</v>
+      </c>
+      <c r="E3">
+        <v>0.9587</v>
+      </c>
+      <c r="F3">
+        <v>0.92076388888888805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1.21941415948623E-2</v>
+      </c>
+      <c r="C4">
+        <v>7.7335851447940598E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.9583290240613602E-2</v>
+      </c>
+      <c r="E4">
+        <v>1.6199825413699499E-2</v>
+      </c>
+      <c r="F4">
+        <v>9.1967057889631998E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -418,55 +525,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="B4">
         <v>0.85646923076922998</v>
@@ -491,8 +598,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
+      <c r="A5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1.1669596701664E-2</v>
@@ -517,43 +624,43 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
+      <c r="A9" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0.88716666666666599</v>
@@ -567,7 +674,7 @@
       <c r="E9">
         <v>0.87961111111111101</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.90175000000000005</v>
       </c>
       <c r="G9">
@@ -578,8 +685,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>2</v>
+      <c r="A10" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B10">
         <v>1.11625792092676E-2</v>
@@ -599,48 +706,48 @@
       <c r="G10">
         <v>1.14263666303588E-2</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>1.10364555437884E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>1</v>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0.96689999999999998</v>
@@ -665,8 +772,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
+      <c r="A15" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B15">
         <v>1.6063966521633499E-2</v>
@@ -691,43 +798,43 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
+      <c r="A19" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B19">
         <v>0.953519736842105</v>
@@ -752,8 +859,8 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>2</v>
+      <c r="A20" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B20">
         <v>5.4128354620184699E-3</v>
@@ -778,43 +885,43 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
+      <c r="A24" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B24">
         <v>0.79291428571428602</v>
@@ -839,8 +946,8 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
-        <v>2</v>
+      <c r="A25" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B25">
         <v>1.72130729161586E-2</v>
@@ -866,27 +973,15 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:H22"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 

--- a/resultados/resultados com wavelet.xlsx
+++ b/resultados/resultados com wavelet.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LRC" sheetId="2" r:id="rId1"/>
     <sheet name="LRC - Wavelet" sheetId="1" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="LRC - Modular" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
   <si>
     <t>Taxa de acerto</t>
   </si>
@@ -85,13 +85,34 @@
   </si>
   <si>
     <t>LRC - Wavelet - 100 holdouts experimento (50% treino - 50% teste)</t>
+  </si>
+  <si>
+    <t>Usado com um resize (10x10)</t>
+  </si>
+  <si>
+    <t>LRC Modular - 100 holdout experimento (50% treino - 50% teste)</t>
+  </si>
+  <si>
+    <t>Usado com um resize (20x20)</t>
+  </si>
+  <si>
+    <t>2 Cortes</t>
+  </si>
+  <si>
+    <t>3 Cortes</t>
+  </si>
+  <si>
+    <t>4 Cortes</t>
+  </si>
+  <si>
+    <t>5 Cortes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +122,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,13 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -444,6 +475,9 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
@@ -458,7 +492,7 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -504,6 +538,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -512,7 +547,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -987,12 +1022,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.91661538461538405</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1.0562034618994499E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/resultados/resultados com wavelet.xlsx
+++ b/resultados/resultados com wavelet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="38">
   <si>
     <t>Taxa de acerto</t>
   </si>
@@ -90,12 +90,6 @@
     <t>Usado com um resize (10x10)</t>
   </si>
   <si>
-    <t>LRC Modular - 100 holdout experimento (50% treino - 50% teste)</t>
-  </si>
-  <si>
-    <t>Usado com um resize (20x20)</t>
-  </si>
-  <si>
     <t>2 Cortes</t>
   </si>
   <si>
@@ -106,6 +100,36 @@
   </si>
   <si>
     <t>5 Cortes</t>
+  </si>
+  <si>
+    <t>LRC Modular - 10 holdout experimento (50% treino - 50% teste)</t>
+  </si>
+  <si>
+    <t>Tempo (Min)</t>
+  </si>
+  <si>
+    <t>ARFaces (20x20)</t>
+  </si>
+  <si>
+    <t>ARFaces (10x10)</t>
+  </si>
+  <si>
+    <t>EssexFaces (10x10)</t>
+  </si>
+  <si>
+    <t>EssexFaces (20x20)</t>
+  </si>
+  <si>
+    <t>ORL (10x10)</t>
+  </si>
+  <si>
+    <t>ORL (20x20)</t>
+  </si>
+  <si>
+    <t>YaleB (10x10)</t>
+  </si>
+  <si>
+    <t>YaleB (20x20)</t>
   </si>
 </sst>
 </file>
@@ -463,7 +487,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -484,16 +508,16 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -504,16 +528,16 @@
         <v>0.81005384615384601</v>
       </c>
       <c r="C3">
+        <v>0.92076388888888805</v>
+      </c>
+      <c r="D3">
+        <v>0.9587</v>
+      </c>
+      <c r="E3">
         <v>0.929095394736842</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.77851428571428605</v>
-      </c>
-      <c r="E3">
-        <v>0.9587</v>
-      </c>
-      <c r="F3">
-        <v>0.92076388888888805</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -524,16 +548,16 @@
         <v>1.21941415948623E-2</v>
       </c>
       <c r="C4">
+        <v>9.1967057889631998E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.6199825413699499E-2</v>
+      </c>
+      <c r="E4">
         <v>7.7335851447940598E-3</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1.9583290240613602E-2</v>
-      </c>
-      <c r="E4">
-        <v>1.6199825413699499E-2</v>
-      </c>
-      <c r="F4">
-        <v>9.1967057889631998E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1022,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1034,62 +1058,448 @@
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="G4" s="2">
         <v>0.91661538461538405</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="2">
+        <v>0.92266153846153798</v>
+      </c>
+      <c r="I4">
+        <v>0.92430769230769205</v>
+      </c>
+      <c r="J4">
+        <v>0.92323076923076897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="G5">
         <v>1.0562034618994499E-2</v>
       </c>
+      <c r="H5">
+        <v>1.12841787157388E-2</v>
+      </c>
+      <c r="I5">
+        <v>7.0984436812300102E-3</v>
+      </c>
+      <c r="J5">
+        <v>5.7769179555441598E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <v>41.916665999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.91611111111111099</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.89027777777777695</v>
+      </c>
+      <c r="D10">
+        <v>1.40277777777778E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.88555555555555499</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.87347222222222198</v>
+      </c>
+      <c r="I10">
+        <v>0.86958333333333304</v>
+      </c>
+      <c r="J10">
+        <v>0.85888888888888903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>7.9973418080330604E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.31109280171355E-2</v>
+      </c>
+      <c r="D11">
+        <v>4.3920523057894197E-4</v>
+      </c>
+      <c r="G11">
+        <v>1.20405977639415E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.46174644685634E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.43212038351073E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.64100616530466E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>7.28</v>
+      </c>
+      <c r="C12">
+        <v>68.98</v>
+      </c>
+      <c r="D12">
+        <v>106.58</v>
+      </c>
+      <c r="G12">
+        <v>7.41</v>
+      </c>
+      <c r="H12">
+        <v>11.05</v>
+      </c>
+      <c r="I12">
+        <v>98.33</v>
+      </c>
+      <c r="J12">
+        <v>155.58000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="C16">
+        <v>0.95350000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.9395</v>
+      </c>
+      <c r="G16">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="H16">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I16">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.95050000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>9.0676470058236609E-3</v>
+      </c>
+      <c r="C17">
+        <v>1.5643600040343E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.4539218991709599E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.03949774196751E-2</v>
+      </c>
+      <c r="G17">
+        <v>9.7325342137709204E-3</v>
+      </c>
+      <c r="H17">
+        <v>1.47572957474524E-2</v>
+      </c>
+      <c r="I17">
+        <v>1.37537873571852E-2</v>
+      </c>
+      <c r="J17">
+        <v>1.06588513035463E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C18">
+        <v>14.41</v>
+      </c>
+      <c r="D18">
+        <v>21.2</v>
+      </c>
+      <c r="E18">
+        <v>2.6</v>
+      </c>
+      <c r="G18">
+        <v>1.18</v>
+      </c>
+      <c r="H18">
+        <v>15.91</v>
+      </c>
+      <c r="I18">
+        <v>2.38</v>
+      </c>
+      <c r="J18">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>2.1628289473684201E-2</v>
+      </c>
+      <c r="C22">
+        <v>2.6315789473684199E-2</v>
+      </c>
+      <c r="D22">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.5493421052631599E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>7.4068976677265103E-3</v>
+      </c>
+      <c r="C23">
+        <v>1.0256736257604E-3</v>
+      </c>
+      <c r="D23">
+        <v>5.2191427534703299E-3</v>
+      </c>
+      <c r="E23">
+        <v>1.81832499471239E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>78.28</v>
+      </c>
+      <c r="C24">
+        <v>188.91</v>
+      </c>
+      <c r="D24">
+        <v>202.41</v>
+      </c>
+      <c r="E24">
+        <v>152.56</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>